--- a/biology/Microbiologie/Flavobacterium/Flavobacterium.xlsx
+++ b/biology/Microbiologie/Flavobacterium/Flavobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Flavobacterium rassemble des bactéries en forme de bâtonnet, à coloration de gram négatif, non fermentantes et aérobies strict.
 Les Flavobacterium sont des bactéries présentes dans le sol ou les eaux douces. Certaines espèces comme Flavobacterium psychrophilum sont pathogènes pour les poissons.
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Flavobacterium sur MicrobeWiki
  Portail de la microbiologie                     </t>
